--- a/金融机构外币存贷款.xlsx
+++ b/金融机构外币存贷款.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\杭州银行\进出口爬取\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8849D-6B3E-4E3D-B4B8-5D1524925D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF4007-E1FB-4D78-812C-85AAAD292A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{82BA3862-0C83-4FE9-B7D2-D4EFC4C33FF9}"/>
   </bookViews>
@@ -54,8 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -122,11 +123,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -141,17 +139,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,10 +483,14 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -508,367 +504,368 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>44927</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>6513.35</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2770.25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>44958</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>6406.47</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2809.98</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>44986</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6594.51</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2899.37</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>45017</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>6411.43</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2841.41</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>45047</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6172.24</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2788.87</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>45078</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6061.19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2749.07</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>45108</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6029.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2698.97</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>45139</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5834.32</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2653.02</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>45170</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5746.35</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2556.59</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>45200</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>5843.73</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2575.5300000000002</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>45231</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5978.39</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2534.4</v>
       </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>45261</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>5934.13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2449.58</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>45292</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>6160.05</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>2595.16</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>45323</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>6142.35</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>2590.25</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>45352</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>6140.42</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>2656.84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>45383</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>6259.24</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>2614.84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>45413</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>6332.85</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>2540.85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>45444</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>6414.17</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>2428.08</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>45474</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>6466.82</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>2303.5100000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>45505</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>6611.87</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>2226.52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>45536</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>6595.46</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>2159.86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>45566</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>6549.02</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>2063.2199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>45597</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>6505.83</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>1973.77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>45627</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>6785.56</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>1877.29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>45658</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="3">
         <v>7104.82</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="3">
         <v>1831.71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>45689</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="3">
         <v>7456.91</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="3">
         <v>1787.99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>45717</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="3">
         <v>7678.79</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="3">
         <v>1760.06</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>45748</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="3">
         <v>7777.52</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="3">
         <v>1715.29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>45778</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="3">
         <v>8072.11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="3">
         <v>1740.06</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>45809</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="3">
         <v>8248.7099999999991</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="3">
         <v>1784.85</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>45839</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="3">
         <v>8202.36</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="3">
         <v>1772.11</v>
       </c>
     </row>
